--- a/адреса.xlsx
+++ b/адреса.xlsx
@@ -393,13 +393,13 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -415,7 +415,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:K26" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:K26" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A1:K26"/>
   <sortState ref="A2:K26">
     <sortCondition ref="A1:A26"/>
@@ -425,7 +425,7 @@
     <tableColumn id="2" name="Адрес"/>
     <tableColumn id="3" name="ip"/>
     <tableColumn id="4" name="ping" dataDxfId="3"/>
-    <tableColumn id="11" name="guest share" dataDxfId="4"/>
+    <tableColumn id="11" name="guest share" dataDxfId="2"/>
     <tableColumn id="5" name="ts comments"/>
     <tableColumn id="7" name="ip-ups"/>
     <tableColumn id="8" name="ping-ups" dataDxfId="1"/>
@@ -727,7 +727,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1430,13 +1430,13 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>52</v>
@@ -1444,31 +1444,22 @@
       <c r="E23" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>76</v>
+      <c r="G23" t="s">
+        <v>93</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I23" t="s">
-        <v>88</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="K23" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>52</v>
@@ -1476,69 +1467,78 @@
       <c r="E24" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G24" t="s">
-        <v>93</v>
+      <c r="G24" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="I24" t="s">
+        <v>70</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K24" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>58</v>
+        <v>81</v>
+      </c>
+      <c r="F25" t="s">
+        <v>85</v>
+      </c>
+      <c r="G25" t="s">
+        <v>93</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I25" t="s">
-        <v>70</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="K25" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>37</v>
+        <v>17</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F26" t="s">
-        <v>85</v>
-      </c>
-      <c r="G26" t="s">
-        <v>93</v>
+        <v>52</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="I26" t="s">
+        <v>88</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K26" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
